--- a/data/trans_camb/POLIPATOLOGIA_Lim_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_5-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>-0,94; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 5,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>-0,22; 0,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,21</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,55</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,7</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,23; 2,46</t>
+          <t>0,09; 2,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>722,8%</t>
         </is>
       </c>
     </row>
@@ -819,21 +743,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -853,42 +762,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,07</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
         </is>
       </c>
     </row>
@@ -906,42 +800,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>-1,51; 1,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,52</t>
+          <t>-0,29; 3,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,36</t>
+          <t>-0,64; 0,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,31</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 1,27</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 1,12</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 2,61</t>
+          <t>0,2; 2,21</t>
         </is>
       </c>
     </row>
@@ -959,42 +838,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-9,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>111,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>192,48%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,96; 224,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,43; 580,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,97; 257,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-10,7; 758,56</t>
         </is>
       </c>
     </row>
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
+          <t>1,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,37</t>
+          <t>-0,66; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,19</t>
+          <t>1,28; 4,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,27</t>
+          <t>-2,33; 0,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,28</t>
+          <t>-0,91; 2,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,53</t>
+          <t>-1,47; 0,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,54</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 2,41</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 2,08</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 4,79</t>
+          <t>0,69; 3,3</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>641,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-22,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>42,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-22,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>117,24%</t>
         </is>
       </c>
     </row>
@@ -1228,42 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>106,04; 2967,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,02; 49,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,67; 156,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,44; 42,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>26,43; 261,76</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,98</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>3,99</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>7,71</t>
+          <t>3,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,68</t>
+          <t>-1,5; 1,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,67</t>
+          <t>-0,94; 4,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,7</t>
+          <t>-3,01; 2,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,31</t>
+          <t>2,78; 9,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,98</t>
+          <t>-1,73; 1,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,75</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 5,31</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3,13; 5,27</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>4,78; 9,88</t>
+          <t>0,25; 5,96</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>105,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>102,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>93,02%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,11; 164,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,73; 350,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,28; 63,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,97; 205,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,12; 47,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>13,91; 177,98</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,79</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14,68</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>15,05</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,86</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>9,17</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>10,11</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>13,27</t>
+          <t>4,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,47</t>
+          <t>-1,01; 4,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,52</t>
+          <t>2,6; 7,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,88; 11,21</t>
+          <t>-4,52; 4,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,48; 18,32</t>
+          <t>-1,62; 7,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,88; 18,42</t>
+          <t>-2,01; 3,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,42; 20,41</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 11,35</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>8,09; 12,3</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>11,67; 14,93</t>
+          <t>1,2; 6,48</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>157,09%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>44,73%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,4; 220,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,76; 349,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,88; 40,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,21; 60,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; 47,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>11,64; 86,63</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>13,52</t>
+          <t>-6,87</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12,89</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>19,06</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>20,89</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>16,68</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>16,48</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>14,2</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>15,26</t>
+          <t>-1,22</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>9,61; 18,42</t>
+          <t>-12,14; -1,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,21; 10,13</t>
+          <t>-5,73; 3,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10,12; 15,64</t>
+          <t>-4,34; 7,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>14,91; 23,35</t>
+          <t>-13,51; 7,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,56; 25,6</t>
+          <t>-6,18; 1,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,26; 25,95</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>13,71; 19,88</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>11,61; 16,88</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>6,95; 19,96</t>
+          <t>-10,36; 3,99</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-50,81%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-4,65%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,49%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,81%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-7,42%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,21; -17,09</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,81; 38,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,68; 48,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,33; 40,96</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,25; 11,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-53,11; 25,0</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>19,68</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>16,85</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>27,16</t>
+          <t>-8,13</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>34,16</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>26,03</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>44,49</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>28,5</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>22,44</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>37,58</t>
+          <t>9,08</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>14,75; 24,99</t>
+          <t>-9,54; 3,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>13,05; 21,47</t>
+          <t>1,22; 14,33</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>23,17; 31,36</t>
+          <t>-15,36; -0,94</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>29,35; 39,13</t>
+          <t>4,45; 16,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>20,96; 30,99</t>
+          <t>-11,32; -1,22</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>41,06; 47,91</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>24,75; 32,05</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>19,25; 26,21</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>34,87; 40,29</t>
+          <t>4,64; 13,67</t>
         </is>
       </c>
     </row>
@@ -2034,47 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-14,38%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-23,8%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-21,26%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>31,86%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,72; 22,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,82; 87,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,46; -1,64</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,92; 53,4</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,07; -4,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>14,57; 53,98</t>
         </is>
       </c>
     </row>
@@ -2144,47 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>13,94</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>6,48</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>10,43</t>
+          <t>3,96</t>
         </is>
       </c>
     </row>
@@ -2197,47 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,36</t>
+          <t>-1,29; 0,46</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,81</t>
+          <t>1,39; 4,26</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,68</t>
+          <t>-1,6; 1,14</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>8,36; 10,44</t>
+          <t>1,63; 6,33</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>7,95; 10,02</t>
+          <t>-1,22; 0,54</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,39</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 7,12</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 6,72</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 11,35</t>
+          <t>2,53; 5,01</t>
         </is>
       </c>
     </row>
@@ -2250,47 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,43%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>86,69%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-3,37%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>50,33%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>61,08%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,8; 15,34</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,77; 134,22</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,37; 13,27</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,52; 72,53</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,79; 8,71</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>37,56; 82,08</t>
         </is>
       </c>
     </row>
@@ -2358,11 +1847,11 @@
   <mergeCells count="12">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
